--- a/opm_hero_property/heroes/36.xlsx
+++ b/opm_hero_property/heroes/36.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>10987</v>
       </c>
       <c r="D4" t="n">
-        <v>10987</v>
+        <v>11504</v>
       </c>
       <c r="E4" t="n">
         <v>246</v>
@@ -1304,7 +1305,7 @@
         <v>12106</v>
       </c>
       <c r="D5" t="n">
-        <v>12106</v>
+        <v>13210</v>
       </c>
       <c r="E5" t="n">
         <v>369</v>
@@ -1411,7 +1412,7 @@
         <v>13422</v>
       </c>
       <c r="D6" t="n">
-        <v>13422</v>
+        <v>15215</v>
       </c>
       <c r="E6" t="n">
         <v>506</v>
@@ -1518,7 +1519,7 @@
         <v>14935</v>
       </c>
       <c r="D7" t="n">
-        <v>14935</v>
+        <v>19403</v>
       </c>
       <c r="E7" t="n">
         <v>948</v>
@@ -1625,7 +1626,7 @@
         <v>16646</v>
       </c>
       <c r="D8" t="n">
-        <v>16646</v>
+        <v>25195</v>
       </c>
       <c r="E8" t="n">
         <v>1405</v>
@@ -1732,7 +1733,7 @@
         <v>18621</v>
       </c>
       <c r="D9" t="n">
-        <v>18621</v>
+        <v>32993</v>
       </c>
       <c r="E9" t="n">
         <v>1855</v>
@@ -1839,7 +1840,7 @@
         <v>19674</v>
       </c>
       <c r="D10" t="n">
-        <v>19674</v>
+        <v>39488</v>
       </c>
       <c r="E10" t="n">
         <v>2192</v>
@@ -1946,7 +1947,7 @@
         <v>20924</v>
       </c>
       <c r="D11" t="n">
-        <v>20924</v>
+        <v>47461</v>
       </c>
       <c r="E11" t="n">
         <v>2557</v>
@@ -2053,7 +2054,7 @@
         <v>23556</v>
       </c>
       <c r="D12" t="n">
-        <v>23556</v>
+        <v>61653</v>
       </c>
       <c r="E12" t="n">
         <v>3147</v>
@@ -2160,7 +2161,7 @@
         <v>24083</v>
       </c>
       <c r="D13" t="n">
-        <v>24083</v>
+        <v>63659</v>
       </c>
       <c r="E13" t="n">
         <v>3541</v>
@@ -2267,7 +2268,7 @@
         <v>24609</v>
       </c>
       <c r="D14" t="n">
-        <v>24609</v>
+        <v>65665</v>
       </c>
       <c r="E14" t="n">
         <v>3934</v>
@@ -2374,7 +2375,7 @@
         <v>25136</v>
       </c>
       <c r="D15" t="n">
-        <v>25136</v>
+        <v>67671</v>
       </c>
       <c r="E15" t="n">
         <v>4327</v>
@@ -2481,7 +2482,7 @@
         <v>25662</v>
       </c>
       <c r="D16" t="n">
-        <v>25662</v>
+        <v>69677</v>
       </c>
       <c r="E16" t="n">
         <v>4721</v>
@@ -2588,7 +2589,7 @@
         <v>26188</v>
       </c>
       <c r="D17" t="n">
-        <v>26188</v>
+        <v>71683</v>
       </c>
       <c r="E17" t="n">
         <v>5114</v>
@@ -6534,4 +6535,2796 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>36</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29343.945122</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5351.4852606</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2148.5805325</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X2" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1550</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>36</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41392.3312856</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7637.3225692</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3302.718325</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1550</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>75792.6232876</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13352.42795</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6957.97392</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1550</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>36</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>80942.02948744</v>
+      </c>
+      <c r="U5" t="n">
+        <v>14939.38097</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7973.4401568</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X5" t="n">
+        <v>870</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1550</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3165.2762;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1027.714765;41,651.7041792</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>36</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>77885.97069928001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>15034.00049</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8361.896793600001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X6" t="n">
+        <v>870</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>21,0.0;31,6330.5524;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2055.42953;41,1303.4083584</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>36</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>278225.3638882</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46040.216592</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30255.0581005</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>36</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>246357.99347108</v>
+      </c>
+      <c r="U8" t="n">
+        <v>41502.04998720001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>28007.69740777</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3436.728512;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1115.9367664000001;41,702.15044388</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>36</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>280981.6926886</v>
+      </c>
+      <c r="U9" t="n">
+        <v>50401.295728</v>
+      </c>
+      <c r="V9" t="n">
+        <v>33448.25591056</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1690</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>21,0.0;31,17183.64256;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>21,0.0;31,5579.683832;41,3510.7522194</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>293450.3989106</v>
+      </c>
+      <c r="U10" t="n">
+        <v>52482.21204800001</v>
+      </c>
+      <c r="V10" t="n">
+        <v>34558.08526556</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0.0;31,17183.64256;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0.0;31,5579.683832;41,3510.7522194</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>36</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>332989.4110659</v>
+      </c>
+      <c r="U11" t="n">
+        <v>62892.8122</v>
+      </c>
+      <c r="V11" t="n">
+        <v>40978.66683996</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0.0;31,33921.37448;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0.0;31,11013.7035216;41,6943.81638395</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>36</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>305919.1051326</v>
+      </c>
+      <c r="U12" t="n">
+        <v>54563.12836800001</v>
+      </c>
+      <c r="V12" t="n">
+        <v>35667.91462056</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0.0;31,17183.64256;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0.0;31,5579.683832;41,3510.7522194</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>36</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>451730.70317196</v>
+      </c>
+      <c r="U13" t="n">
+        <v>79295.55036732</v>
+      </c>
+      <c r="V13" t="n">
+        <v>57323.7895258</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2440</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0.0;31,21678.6153072;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0.0;31,7039.54997484;41,4466.3656056</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>36</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>457518.62112372</v>
+      </c>
+      <c r="U14" t="n">
+        <v>81076.56147284</v>
+      </c>
+      <c r="V14" t="n">
+        <v>58461.7390937</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1790</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0.0;31,25291.7178584;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0.0;31,8212.80830398;41,5210.7598732</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>36</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1089367.2992976</v>
+      </c>
+      <c r="U15" t="n">
+        <v>185049.55696296</v>
+      </c>
+      <c r="V15" t="n">
+        <v>147611.39884</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2070</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0.0;31,33920.784746799996;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0.0;31,11015.02742568;41,7184.504199999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5447735.108762201</v>
+      </c>
+      <c r="U16" t="n">
+        <v>906613.6842028</v>
+      </c>
+      <c r="V16" t="n">
+        <v>736139.48865316</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2630</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0.0;31,94649.549582;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0.0;31,30735.90134044;41,17192</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>36</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8869850.427389801</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1459496.7444212</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1178090.461586</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3540</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4260</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0.0;31,102379;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0.0;31,33214;41,17192</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>36</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>230056.08830098</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41986.8685893</v>
+      </c>
+      <c r="V18" t="n">
+        <v>25397.06959328</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X18" t="n">
+        <v>870</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2613.9190511;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0.0;31,847.27854988;41,489.54708096</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>36</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>312875.52218608</v>
+      </c>
+      <c r="U19" t="n">
+        <v>54943.12717496</v>
+      </c>
+      <c r="V19" t="n">
+        <v>35448.68730970001</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1690</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3170.0667255999997;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1027.71684448;41,598.32441622</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>36</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>407511.1249444801</v>
+      </c>
+      <c r="U20" t="n">
+        <v>69617.87558812</v>
+      </c>
+      <c r="V20" t="n">
+        <v>50373.31474881</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0.0;31,5186.470179;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1680.9141531999999;41,1029.01644514</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>36</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>474653.32377719</v>
+      </c>
+      <c r="U21" t="n">
+        <v>82828.45190223999</v>
+      </c>
+      <c r="V21" t="n">
+        <v>59802.4642607</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1790</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0.0;31,6698.5400503;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2170.78439724;41,1353.84015865</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>36</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>549737.4893360001</v>
+      </c>
+      <c r="U22" t="n">
+        <v>100202.89095592</v>
+      </c>
+      <c r="V22" t="n">
+        <v>72229.66615623</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2070</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0.0;31,7995.0194992;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2595.70633724;41,1655.48637428</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>36</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>704043.9560419</v>
+      </c>
+      <c r="U23" t="n">
+        <v>135294.5584636</v>
+      </c>
+      <c r="V23" t="n">
+        <v>97636.49342948</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2630</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0.0;31,11064.606934;41,0.0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3591.2352042800003;41,2064</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/36.xlsx
+++ b/opm_hero_property/heroes/36.xlsx
@@ -6799,31 +6799,31 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29343.945122</v>
+        <v>7398.466</v>
       </c>
       <c r="U2" t="n">
-        <v>5351.4852606</v>
+        <v>1541.7118</v>
       </c>
       <c r="V2" t="n">
-        <v>2148.5805325</v>
+        <v>573.9615</v>
       </c>
       <c r="W2" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="X2" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1550</v>
+        <v>160</v>
       </c>
       <c r="AA2" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AB2" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -6910,31 +6910,31 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41392.3312856</v>
+        <v>19740.5368</v>
       </c>
       <c r="U3" t="n">
-        <v>7637.3225692</v>
+        <v>3835.9676</v>
       </c>
       <c r="V3" t="n">
-        <v>3302.718325</v>
+        <v>1751.215</v>
       </c>
       <c r="W3" t="n">
-        <v>2100</v>
+        <v>777</v>
       </c>
       <c r="X3" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1550</v>
+        <v>320</v>
       </c>
       <c r="AA3" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -7021,31 +7021,31 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>75792.6232876</v>
+        <v>56313.6428</v>
       </c>
       <c r="U4" t="n">
-        <v>13352.42795</v>
+        <v>9930.35</v>
       </c>
       <c r="V4" t="n">
-        <v>6957.97392</v>
+        <v>5510.064</v>
       </c>
       <c r="W4" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X4" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1550</v>
+        <v>600</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -7132,31 +7132,31 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>80942.02948744</v>
+        <v>61463.04899984</v>
       </c>
       <c r="U5" t="n">
-        <v>14939.38097</v>
+        <v>11517.30302</v>
       </c>
       <c r="V5" t="n">
-        <v>7973.4401568</v>
+        <v>6525.5302368</v>
       </c>
       <c r="W5" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X5" t="n">
-        <v>870</v>
+        <v>670</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1550</v>
+        <v>600</v>
       </c>
       <c r="AA5" t="n">
-        <v>1270</v>
+        <v>970</v>
       </c>
       <c r="AB5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -7181,12 +7181,12 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>21,0.0;31,3165.2762;41,0.0</t>
+          <t>21,0;31,3165;41,0</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21,0.0;31,1027.714765;41,651.7041792</t>
+          <t>21,0;31,1027;41,651</t>
         </is>
       </c>
     </row>
@@ -7251,31 +7251,31 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>77885.97069928001</v>
+        <v>66885.97069928001</v>
       </c>
       <c r="U6" t="n">
-        <v>15034.00049</v>
+        <v>13154.00049</v>
       </c>
       <c r="V6" t="n">
-        <v>8361.896793600001</v>
+        <v>7561.8967936</v>
       </c>
       <c r="W6" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>870</v>
+        <v>670</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>1270</v>
+        <v>970</v>
       </c>
       <c r="AB6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7300,12 +7300,12 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>21,0.0;31,6330.5524;41,0.0</t>
+          <t>21,0;31,6330;41,0</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>21,0.0;31,2055.42953;41,1303.4083584</t>
+          <t>21,0;31,2055;41,1303</t>
         </is>
       </c>
     </row>
@@ -7370,13 +7370,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>278225.3638882</v>
+        <v>239572.3746</v>
       </c>
       <c r="U7" t="n">
-        <v>46040.216592</v>
+        <v>39589.376</v>
       </c>
       <c r="V7" t="n">
-        <v>30255.0581005</v>
+        <v>26814.5871</v>
       </c>
       <c r="W7" t="n">
         <v>3380</v>
@@ -7388,7 +7388,7 @@
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2190</v>
+        <v>1440</v>
       </c>
       <c r="AA7" t="n">
         <v>2370</v>
@@ -7530,12 +7530,12 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0.0;31,3436.728512;41,0.0</t>
+          <t>21,0;31,3436;41,0</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,0.0;31,1115.9367664000001;41,702.15044388</t>
+          <t>21,0;31,1115;41,702</t>
         </is>
       </c>
     </row>
@@ -7649,12 +7649,12 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>21,0.0;31,17183.64256;41,0.0</t>
+          <t>21,0;31,17183;41,0</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>21,0.0;31,5579.683832;41,3510.7522194</t>
+          <t>21,0;31,5579;41,3510</t>
         </is>
       </c>
     </row>
@@ -7768,12 +7768,12 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0.0;31,17183.64256;41,0.0</t>
+          <t>21,0;31,17183;41,0</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,0.0;31,5579.683832;41,3510.7522194</t>
+          <t>21,0;31,5579;41,3510</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0.0;31,33921.37448;41,0.0</t>
+          <t>21,0;31,33921;41,0</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,0.0;31,11013.7035216;41,6943.81638395</t>
+          <t>21,0;31,11013;41,6943</t>
         </is>
       </c>
     </row>
@@ -8006,12 +8006,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>21,0.0;31,17183.64256;41,0.0</t>
+          <t>21,0;31,17183;41,0</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>21,0.0;31,5579.683832;41,3510.7522194</t>
+          <t>21,0;31,5579;41,3510</t>
         </is>
       </c>
     </row>
@@ -8125,12 +8125,12 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0.0;31,21678.6153072;41,0.0</t>
+          <t>21,0;31,21678;41,0</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,0.0;31,7039.54997484;41,4466.3656056</t>
+          <t>21,0;31,7039;41,4466</t>
         </is>
       </c>
     </row>
@@ -8244,12 +8244,12 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0.0;31,25291.7178584;41,0.0</t>
+          <t>21,0;31,25291;41,0</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,0.0;31,8212.80830398;41,5210.7598732</t>
+          <t>21,0;31,8212;41,5210</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8363,12 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0.0;31,33920.784746799996;41,0.0</t>
+          <t>21,0;31,33920;41,0</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,0.0;31,11015.02742568;41,7184.504199999999</t>
+          <t>21,0;31,11015;41,7184</t>
         </is>
       </c>
     </row>
@@ -8482,12 +8482,12 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0.0;31,94649.549582;41,0.0</t>
+          <t>21,0;31,94649;41,0</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,0.0;31,30735.90134044;41,17192</t>
+          <t>21,0;31,30735;41,17192</t>
         </is>
       </c>
     </row>
@@ -8601,12 +8601,12 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0.0;31,102379;41,0.0</t>
+          <t>21,0;31,102379;41,0</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,0.0;31,33214;41,17192</t>
+          <t>21,0;31,33214;41,17192</t>
         </is>
       </c>
     </row>
@@ -8671,31 +8671,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>230056.08830098</v>
+        <v>219056.08830098</v>
       </c>
       <c r="U18" t="n">
-        <v>41986.8685893</v>
+        <v>40106.8685893</v>
       </c>
       <c r="V18" t="n">
-        <v>25397.06959328</v>
+        <v>24597.06959328</v>
       </c>
       <c r="W18" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X18" t="n">
-        <v>870</v>
+        <v>670</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AA18" t="n">
-        <v>1270</v>
+        <v>970</v>
       </c>
       <c r="AB18" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -8720,12 +8720,12 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0.0;31,2613.9190511;41,0.0</t>
+          <t>21,0;31,2613;41,0</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,0.0;31,847.27854988;41,489.54708096</t>
+          <t>21,0;31,847;41,489</t>
         </is>
       </c>
     </row>
@@ -8790,31 +8790,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>312875.52218608</v>
+        <v>289775.5221860801</v>
       </c>
       <c r="U19" t="n">
-        <v>54943.12717496</v>
+        <v>50995.12717496</v>
       </c>
       <c r="V19" t="n">
-        <v>35448.68730970001</v>
+        <v>33768.68730970001</v>
       </c>
       <c r="W19" t="n">
-        <v>3380</v>
+        <v>1700</v>
       </c>
       <c r="X19" t="n">
-        <v>1580</v>
+        <v>1040</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1690</v>
+        <v>1150</v>
       </c>
       <c r="AA19" t="n">
-        <v>2300</v>
+        <v>1490</v>
       </c>
       <c r="AB19" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -8839,12 +8839,12 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0.0;31,3170.0667255999997;41,0.0</t>
+          <t>21,0;31,3170;41,0</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,0.0;31,1027.71684448;41,598.32441622</t>
+          <t>21,0;31,1027;41,598</t>
         </is>
       </c>
     </row>
@@ -8958,12 +8958,12 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0.0;31,5186.470179;41,0.0</t>
+          <t>21,0;31,5186;41,0</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,0.0;31,1680.9141531999999;41,1029.01644514</t>
+          <t>21,0;31,1680;41,1029</t>
         </is>
       </c>
     </row>
@@ -9077,12 +9077,12 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0.0;31,6698.5400503;41,0.0</t>
+          <t>21,0;31,6698;41,0</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,0.0;31,2170.78439724;41,1353.84015865</t>
+          <t>21,0;31,2170;41,1353</t>
         </is>
       </c>
     </row>
@@ -9196,12 +9196,12 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0.0;31,7995.0194992;41,0.0</t>
+          <t>21,0;31,7995;41,0</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,0.0;31,2595.70633724;41,1655.48637428</t>
+          <t>21,0;31,2595;41,1655</t>
         </is>
       </c>
     </row>
@@ -9315,12 +9315,12 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>21,0.0;31,11064.606934;41,0.0</t>
+          <t>21,0;31,11064;41,0</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>21,0.0;31,3591.2352042800003;41,2064</t>
+          <t>21,0;31,3591;41,2064</t>
         </is>
       </c>
     </row>

--- a/opm_hero_property/heroes/36.xlsx
+++ b/opm_hero_property/heroes/36.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,138 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>7398.466</v>
+        <v>5582612.108762201</v>
       </c>
       <c r="U2" t="n">
-        <v>1541.7118</v>
+        <v>930341.6842028</v>
       </c>
       <c r="V2" t="n">
-        <v>573.9615</v>
+        <v>757979.48865316</v>
       </c>
       <c r="W2" t="n">
-        <v>600</v>
+        <v>3380</v>
       </c>
       <c r="X2" t="n">
-        <v>160</v>
+        <v>2630</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>160</v>
+        <v>2190</v>
       </c>
       <c r="AA2" t="n">
-        <v>240</v>
+        <v>3350</v>
       </c>
       <c r="AB2" t="n">
-        <v>80</v>
+        <v>720</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,94649;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,30735;41,17192</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>11023673.609335</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2197126.575554045</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>554501.8046281449</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16376237.28951719</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6964,105 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>19740.5368</v>
+        <v>704043.9560419</v>
       </c>
       <c r="U3" t="n">
-        <v>3835.9676</v>
+        <v>135294.5584636</v>
       </c>
       <c r="V3" t="n">
-        <v>1751.215</v>
+        <v>97636.49342948</v>
       </c>
       <c r="W3" t="n">
-        <v>777</v>
+        <v>3380</v>
       </c>
       <c r="X3" t="n">
-        <v>320</v>
+        <v>2630</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>320</v>
+        <v>2190</v>
       </c>
       <c r="AA3" t="n">
-        <v>480</v>
+        <v>3350</v>
       </c>
       <c r="AB3" t="n">
-        <v>160</v>
+        <v>720</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,11064;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,3591;41,2064</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>1249589.784095</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>249147.442396165</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>65263.27016908501</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2214871.74666025</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7071,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7089,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7107,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7121,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>56313.6428</v>
+        <v>7398.466</v>
       </c>
       <c r="U4" t="n">
-        <v>9930.35</v>
+        <v>1541.7118</v>
       </c>
       <c r="V4" t="n">
-        <v>5510.064</v>
+        <v>573.9615</v>
       </c>
       <c r="W4" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7174,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18613.706045</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4456.85</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23070.556045</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7206,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7224,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7242,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,66 +7256,82 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>61463.04899984</v>
+        <v>19740.5368</v>
       </c>
       <c r="U5" t="n">
-        <v>11517.30302</v>
+        <v>3835.9676</v>
       </c>
       <c r="V5" t="n">
-        <v>6525.5302368</v>
+        <v>1751.215</v>
       </c>
       <c r="W5" t="n">
-        <v>1300</v>
+        <v>777</v>
       </c>
       <c r="X5" t="n">
-        <v>670</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="n">
-        <v>970</v>
+        <v>480</v>
       </c>
       <c r="AB5" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>21,0;31,3165;41,0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>21,0;31,1027;41,651</t>
-        </is>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>47219.44949</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11828.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>59048.24949</v>
       </c>
     </row>
     <row r="6">
@@ -7212,16 +7356,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7243,27 +7387,27 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>66885.97069928001</v>
+        <v>56313.6428</v>
       </c>
       <c r="U6" t="n">
-        <v>13154.00049</v>
+        <v>9930.35</v>
       </c>
       <c r="V6" t="n">
-        <v>7561.8967936</v>
+        <v>5510.064</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
@@ -7272,7 +7416,7 @@
         <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>300</v>
@@ -7290,23 +7434,39 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>21,0;31,6330;41,0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>21,0;31,2055;41,1303</t>
-        </is>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>112967.8258</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9640.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>161450.9258</v>
       </c>
     </row>
     <row r="7">
@@ -7316,31 +7476,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7352,10 +7512,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7366,59 +7526,91 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>239572.3746</v>
+        <v>61463.04899984</v>
       </c>
       <c r="U7" t="n">
-        <v>39589.376</v>
+        <v>11517.30302</v>
       </c>
       <c r="V7" t="n">
-        <v>26814.5871</v>
+        <v>6525.5302368</v>
       </c>
       <c r="W7" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X7" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="AA7" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AB7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,3165;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,1027;41,651</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>112967.8258</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>21938.31289944</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>183564.23869944</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7427,31 +7619,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7463,10 +7655,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7477,66 +7669,90 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>246357.99347108</v>
+        <v>66885.97069928001</v>
       </c>
       <c r="U8" t="n">
-        <v>41502.04998720001</v>
+        <v>13154.00049</v>
       </c>
       <c r="V8" t="n">
-        <v>28007.69740777</v>
+        <v>7561.8967936</v>
       </c>
       <c r="W8" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X8" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="AA8" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AB8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0;31,3436;41,0</t>
+          <t>21,0;31,6330;41,0</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,0;31,1115;41,702</t>
-        </is>
+          <t>21,0;31,2055;41,1303</t>
+        </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>112967.8258</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>736.9290446000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>43876.62579888001</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>206239.48064348</v>
       </c>
     </row>
     <row r="9">
@@ -7561,7 +7777,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7570,7 +7786,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7592,21 +7808,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>280981.6926886</v>
+        <v>238783.3746</v>
       </c>
       <c r="U9" t="n">
-        <v>50401.295728</v>
+        <v>39746.376</v>
       </c>
       <c r="V9" t="n">
-        <v>33448.25591056</v>
+        <v>26941.5871</v>
       </c>
       <c r="W9" t="n">
         <v>3380</v>
@@ -7618,7 +7834,7 @@
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1690</v>
+        <v>1440</v>
       </c>
       <c r="AA9" t="n">
         <v>2370</v>
@@ -7642,20 +7858,36 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>21,0;31,17183;41,0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>21,0;31,5579;41,3510</t>
-        </is>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>511698.644825</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>680745.4948250001</v>
       </c>
     </row>
     <row r="10">
@@ -7680,7 +7912,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7689,7 +7921,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7711,21 +7943,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>293450.3989106</v>
+        <v>245568.99347108</v>
       </c>
       <c r="U10" t="n">
-        <v>52482.21204800001</v>
+        <v>41659.04998720001</v>
       </c>
       <c r="V10" t="n">
-        <v>34558.08526556</v>
+        <v>28134.69740777</v>
       </c>
       <c r="W10" t="n">
         <v>3380</v>
@@ -7737,7 +7969,7 @@
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1940</v>
+        <v>1440</v>
       </c>
       <c r="AA10" t="n">
         <v>2370</v>
@@ -7761,20 +7993,44 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0;31,17183;41,0</t>
+          <t>21,0;31,3436;41,0</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,0;31,5579;41,3510</t>
-        </is>
+          <t>21,0;31,1115;41,702</t>
+        </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>511698.644825</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3320.854762125</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>23522.5988903125</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>707588.9484774375</v>
       </c>
     </row>
     <row r="11">
@@ -7799,7 +8055,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7808,7 +8064,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7830,21 +8086,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>332989.4110659</v>
+        <v>280192.6926886</v>
       </c>
       <c r="U11" t="n">
-        <v>62892.8122</v>
+        <v>50558.295728</v>
       </c>
       <c r="V11" t="n">
-        <v>40978.66683996</v>
+        <v>33575.25591056</v>
       </c>
       <c r="W11" t="n">
         <v>3380</v>
@@ -7856,7 +8112,7 @@
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2190</v>
+        <v>1690</v>
       </c>
       <c r="AA11" t="n">
         <v>2370</v>
@@ -7880,20 +8136,44 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0;31,33921;41,0</t>
+          <t>21,0;31,17183;41,0</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,0;31,11013;41,6943</t>
-        </is>
+          <t>21,0;31,5579;41,3510</t>
+        </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>511698.644825</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>36741.902383375</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>117625.757489145</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>835113.1546975201</v>
       </c>
     </row>
     <row r="12">
@@ -7918,13 +8198,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7949,36 +8229,36 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>305919.1051326</v>
+        <v>292661.3989106</v>
       </c>
       <c r="U12" t="n">
-        <v>54563.12836800001</v>
+        <v>52639.21204800001</v>
       </c>
       <c r="V12" t="n">
-        <v>35667.91462056</v>
+        <v>34685.08526556</v>
       </c>
       <c r="W12" t="n">
         <v>3380</v>
       </c>
       <c r="X12" t="n">
-        <v>1580</v>
+        <v>1650</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2190</v>
+        <v>1940</v>
       </c>
       <c r="AA12" t="n">
-        <v>2300</v>
+        <v>2370</v>
       </c>
       <c r="AB12" t="n">
         <v>720</v>
@@ -7996,7 +8276,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8014,6 +8294,30 @@
           <t>21,0;31,5579;41,3510</t>
         </is>
       </c>
+      <c r="AL12" t="n">
+        <v>511698.644825</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>70162.950004625</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>117625.757489145</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>868534.2023187701</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8022,10 +8326,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8040,13 +8344,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8058,10 +8362,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8072,23 +8376,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>451730.70317196</v>
+        <v>332200.4110659</v>
       </c>
       <c r="U13" t="n">
-        <v>79295.55036732</v>
+        <v>63049.8122</v>
       </c>
       <c r="V13" t="n">
-        <v>57323.7895258</v>
+        <v>41105.66683996</v>
       </c>
       <c r="W13" t="n">
         <v>3380</v>
       </c>
       <c r="X13" t="n">
-        <v>1720</v>
+        <v>1650</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8097,7 +8401,7 @@
         <v>2190</v>
       </c>
       <c r="AA13" t="n">
-        <v>2440</v>
+        <v>2370</v>
       </c>
       <c r="AB13" t="n">
         <v>720</v>
@@ -8106,32 +8410,56 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0;31,21678;41,0</t>
+          <t>21,0;31,33921;41,0</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,0;31,7039;41,4466</t>
-        </is>
+          <t>21,0;31,11013;41,6943</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>511698.644825</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>103583.997625875</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>232707.707124795</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1017037.19957567</v>
       </c>
     </row>
     <row r="14">
@@ -8141,10 +8469,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8159,13 +8487,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8177,10 +8505,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8191,23 +8519,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>457518.62112372</v>
+        <v>305130.1051326</v>
       </c>
       <c r="U14" t="n">
-        <v>81076.56147284</v>
+        <v>54720.12836800001</v>
       </c>
       <c r="V14" t="n">
-        <v>58461.7390937</v>
+        <v>35794.91462056</v>
       </c>
       <c r="W14" t="n">
         <v>3380</v>
       </c>
       <c r="X14" t="n">
-        <v>1790</v>
+        <v>1580</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8216,7 +8544,7 @@
         <v>2190</v>
       </c>
       <c r="AA14" t="n">
-        <v>2510</v>
+        <v>2300</v>
       </c>
       <c r="AB14" t="n">
         <v>720</v>
@@ -8225,32 +8553,56 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0;31,25291;41,0</t>
+          <t>21,0;31,17183;41,0</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,0;31,8212;41,5210</t>
-        </is>
+          <t>21,0;31,5579;41,3510</t>
+        </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>511698.644825</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>103583.997625875</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39443.60000000001</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>117625.757489145</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>901780.2499400201</v>
       </c>
     </row>
     <row r="15">
@@ -8260,10 +8612,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8278,13 +8630,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8296,10 +8648,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8310,23 +8662,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1089367.2992976</v>
+        <v>454230.70317196</v>
       </c>
       <c r="U15" t="n">
-        <v>185049.55696296</v>
+        <v>80103.55036732</v>
       </c>
       <c r="V15" t="n">
-        <v>147611.39884</v>
+        <v>58097.7895258</v>
       </c>
       <c r="W15" t="n">
         <v>3380</v>
       </c>
       <c r="X15" t="n">
-        <v>2070</v>
+        <v>1720</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8335,7 +8687,7 @@
         <v>2190</v>
       </c>
       <c r="AA15" t="n">
-        <v>2790</v>
+        <v>2440</v>
       </c>
       <c r="AB15" t="n">
         <v>720</v>
@@ -8344,32 +8696,56 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0;31,33920;41,0</t>
+          <t>21,0;31,21678;41,0</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,0;31,11015;41,7184</t>
-        </is>
+          <t>21,0;31,7039;41,4466</t>
+        </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>788853.6063900001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>158348.08030113</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>112125.4</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>147763.503788688</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1354617.990479818</v>
       </c>
     </row>
     <row r="16">
@@ -8379,10 +8755,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8397,13 +8773,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8415,10 +8791,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8429,23 +8805,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5447735.108762201</v>
+        <v>460018.62112372</v>
       </c>
       <c r="U16" t="n">
-        <v>906613.6842028</v>
+        <v>81884.56147284</v>
       </c>
       <c r="V16" t="n">
-        <v>736139.48865316</v>
+        <v>59235.7390937</v>
       </c>
       <c r="W16" t="n">
         <v>3380</v>
       </c>
       <c r="X16" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8454,7 +8830,7 @@
         <v>2190</v>
       </c>
       <c r="AA16" t="n">
-        <v>3350</v>
+        <v>2510</v>
       </c>
       <c r="AB16" t="n">
         <v>720</v>
@@ -8463,32 +8839,56 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0;31,94649;41,0</t>
+          <t>21,0;31,25291;41,0</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,0;31,30735;41,17192</t>
-        </is>
+          <t>21,0;31,8212;41,5210</t>
+        </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>788853.6063900001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>158348.08030113</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112300.4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>172383.608383961</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1379413.095075091</v>
       </c>
     </row>
     <row r="17">
@@ -8498,10 +8898,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8516,13 +8916,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8534,10 +8934,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8548,23 +8948,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8869850.427389801</v>
+        <v>1126862.2992976</v>
       </c>
       <c r="U17" t="n">
-        <v>1459496.7444212</v>
+        <v>191906.55696296</v>
       </c>
       <c r="V17" t="n">
-        <v>1178090.461586</v>
+        <v>154244.39884</v>
       </c>
       <c r="W17" t="n">
         <v>3380</v>
       </c>
       <c r="X17" t="n">
-        <v>3540</v>
+        <v>2070</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8573,7 +8973,7 @@
         <v>2190</v>
       </c>
       <c r="AA17" t="n">
-        <v>4260</v>
+        <v>2790</v>
       </c>
       <c r="AB17" t="n">
         <v>720</v>
@@ -8582,66 +8982,90 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0;31,102379;41,0</t>
+          <t>21,0;31,33920;41,0</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,0;31,33214;41,17192</t>
-        </is>
+          <t>21,0;31,11015;41,7184</t>
+        </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>1810519.44396</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>359886.84218932</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>683503.6000000001</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>228493.699522704</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3352408.335672024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8653,114 +9077,138 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>219056.08830098</v>
+        <v>5582612.108762201</v>
       </c>
       <c r="U18" t="n">
-        <v>40106.8685893</v>
+        <v>930341.6842028</v>
       </c>
       <c r="V18" t="n">
-        <v>24597.06959328</v>
+        <v>757979.48865316</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>3380</v>
       </c>
       <c r="X18" t="n">
-        <v>670</v>
+        <v>2630</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>600</v>
+        <v>2190</v>
       </c>
       <c r="AA18" t="n">
-        <v>970</v>
+        <v>3350</v>
       </c>
       <c r="AB18" t="n">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0;31,2613;41,0</t>
+          <t>21,0;31,94649;41,0</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,0;31,847;41,489</t>
-        </is>
+          <t>21,0;31,30735;41,17192</t>
+        </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>11023673.609335</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2197126.575554045</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>554501.8046281449</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16376237.28951719</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8772,80 +9220,104 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>289775.5221860801</v>
+        <v>9179568.427389801</v>
       </c>
       <c r="U19" t="n">
-        <v>50995.12717496</v>
+        <v>1513529.7444212</v>
       </c>
       <c r="V19" t="n">
-        <v>33768.68730970001</v>
+        <v>1227322.461586</v>
       </c>
       <c r="W19" t="n">
-        <v>1700</v>
+        <v>3380</v>
       </c>
       <c r="X19" t="n">
-        <v>1040</v>
+        <v>3540</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1150</v>
+        <v>2190</v>
       </c>
       <c r="AA19" t="n">
-        <v>1490</v>
+        <v>4260</v>
       </c>
       <c r="AB19" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
       </c>
-      <c r="AH19" t="n">
-        <v>2</v>
-      </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0;31,3170;41,0</t>
+          <t>21,0;31,102379;41,0</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,0;31,1027;41,598</t>
-        </is>
+          <t>21,0;31,33214;41,17192</t>
+        </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>17886185.34914</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3566344.168875581</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3469133.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>600645.2</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26698188.31801558</v>
       </c>
     </row>
     <row r="20">
@@ -8855,31 +9327,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8891,80 +9363,104 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>407511.1249444801</v>
+        <v>219056.08830098</v>
       </c>
       <c r="U20" t="n">
-        <v>69617.87558812</v>
+        <v>40106.8685893</v>
       </c>
       <c r="V20" t="n">
-        <v>50373.31474881</v>
+        <v>24597.06959328</v>
       </c>
       <c r="W20" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X20" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>1940</v>
+        <v>600</v>
       </c>
       <c r="AA20" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AB20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0;31,5186;41,0</t>
+          <t>21,0;31,2613;41,0</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,0;31,1680;41,1029</t>
-        </is>
+          <t>21,0;31,847;41,489</t>
+        </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>540476.72508</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3530.56564596</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33824.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>17125.64100255</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>642336.63172851</v>
       </c>
     </row>
     <row r="21">
@@ -8974,31 +9470,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9010,80 +9506,104 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>474653.32377719</v>
+        <v>289775.5221860801</v>
       </c>
       <c r="U21" t="n">
-        <v>82828.45190223999</v>
+        <v>50995.12717496</v>
       </c>
       <c r="V21" t="n">
-        <v>59802.4642607</v>
+        <v>33768.68730970001</v>
       </c>
       <c r="W21" t="n">
-        <v>3380</v>
+        <v>1700</v>
       </c>
       <c r="X21" t="n">
-        <v>1790</v>
+        <v>1040</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2190</v>
+        <v>1150</v>
       </c>
       <c r="AA21" t="n">
-        <v>2510</v>
+        <v>1490</v>
       </c>
       <c r="AB21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0;31,6698;41,0</t>
+          <t>21,0;31,3170;41,0</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,0;31,2170;41,1353</t>
-        </is>
+          <t>21,0;31,1027;41,598</t>
+        </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>641140.23289</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49023</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>46023.19361582999</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>67649.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>20500.225218249</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>843364.351724079</v>
       </c>
     </row>
     <row r="22">
@@ -9093,10 +9613,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9108,16 +9628,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9129,46 +9649,46 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>549737.4893360001</v>
+        <v>407511.1249444801</v>
       </c>
       <c r="U22" t="n">
-        <v>100202.89095592</v>
+        <v>69617.87558812</v>
       </c>
       <c r="V22" t="n">
-        <v>72229.66615623</v>
+        <v>50373.31474881</v>
       </c>
       <c r="W22" t="n">
         <v>3380</v>
       </c>
       <c r="X22" t="n">
-        <v>2070</v>
+        <v>1650</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2190</v>
+        <v>1940</v>
       </c>
       <c r="AA22" t="n">
-        <v>2790</v>
+        <v>2370</v>
       </c>
       <c r="AB22" t="n">
         <v>720</v>
@@ -9177,32 +9697,56 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0;31,7995;41,0</t>
+          <t>21,0;31,5186;41,0</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,0;31,2595;41,1655</t>
-        </is>
+          <t>21,0;31,1680;41,1029</t>
+        </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>812049.479915</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>110410.574653955</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>97518.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>33075.67173921051</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1190744.026308166</v>
       </c>
     </row>
     <row r="23">
@@ -9212,10 +9756,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9230,13 +9774,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9248,10 +9792,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9262,23 +9806,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>704043.9560419</v>
+        <v>474653.32377719</v>
       </c>
       <c r="U23" t="n">
-        <v>135294.5584636</v>
+        <v>82828.45190223999</v>
       </c>
       <c r="V23" t="n">
-        <v>97636.49342948</v>
+        <v>59802.4642607</v>
       </c>
       <c r="W23" t="n">
         <v>3380</v>
       </c>
       <c r="X23" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9287,7 +9831,7 @@
         <v>2190</v>
       </c>
       <c r="AA23" t="n">
-        <v>3350</v>
+        <v>2510</v>
       </c>
       <c r="AB23" t="n">
         <v>720</v>
@@ -9296,32 +9840,342 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,6698;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,2170;41,1353</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>886525.646645</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>177639.714792215</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>152526</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>42457.099964456</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1403819.311401671</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>36</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>549737.4893360001</v>
+      </c>
+      <c r="U24" t="n">
+        <v>100202.89095592</v>
+      </c>
+      <c r="V24" t="n">
+        <v>72229.66615623</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2070</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,7995;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,2595;41,1655</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>1004280.105195</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>200808.054131865</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>257621.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>50753.90800330551</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1670943.517330171</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
         <v>95</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="I25" t="n">
         <v>85</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>36</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>704043.9560419</v>
+      </c>
+      <c r="U25" t="n">
+        <v>135294.5584636</v>
+      </c>
+      <c r="V25" t="n">
+        <v>97636.49342948</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2630</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>21,0;31,11064;41,0</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>21,0;31,3591;41,2064</t>
         </is>
+      </c>
+      <c r="AL25" t="n">
+        <v>1249589.784095</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>249147.442396165</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>65263.27016908501</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2214871.74666025</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/36.xlsx
+++ b/opm_hero_property/heroes/36.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>36</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5582612.108762201</v>
+        <v>6464442.635706201</v>
       </c>
       <c r="U2" t="n">
-        <v>930341.6842028</v>
+        <v>1076282.9600748</v>
       </c>
       <c r="V2" t="n">
-        <v>757979.48865316</v>
+        <v>889571.5161811601</v>
       </c>
       <c r="W2" t="n">
         <v>3380</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11023673.609335</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2197126.575554045</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2887452.2887468</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1763651.6</v>
+      </c>
+      <c r="AU2" t="n">
         <v>554501.8046281449</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16376237.28951719</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19021716.77826399</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>36</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>704043.9560419</v>
+        <v>803351.9415299</v>
       </c>
       <c r="U3" t="n">
-        <v>135294.5584636</v>
+        <v>151730.1161276</v>
       </c>
       <c r="V3" t="n">
-        <v>97636.49342948</v>
+        <v>112764.30201348</v>
       </c>
       <c r="W3" t="n">
         <v>3380</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1249589.784095</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>249147.442396165</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>567704.7827276001</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>199797.05</v>
+      </c>
+      <c r="AU3" t="n">
         <v>65263.27016908501</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2214871.74666025</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2514569.97938785</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>36</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7398.466</v>
+        <v>7862.466</v>
       </c>
       <c r="U4" t="n">
-        <v>1541.7118</v>
+        <v>1617.7118</v>
       </c>
       <c r="V4" t="n">
-        <v>573.9615</v>
+        <v>642.9615</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18613.706045</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23070.556045</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1385.15</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24455.706045</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>36</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19740.5368</v>
+        <v>33391.5368</v>
       </c>
       <c r="U5" t="n">
-        <v>3835.9676</v>
+        <v>6094.9676</v>
       </c>
       <c r="V5" t="n">
-        <v>1751.215</v>
+        <v>3788.215</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>47219.44949</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>59048.24949</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>40950.85</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>99999.09949000001</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>36</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>56313.6428</v>
+        <v>114837.6428</v>
       </c>
       <c r="U6" t="n">
-        <v>9930.35</v>
+        <v>19615.35</v>
       </c>
       <c r="V6" t="n">
-        <v>5510.064</v>
+        <v>14243.064</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>112967.8258</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9640.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>161450.9258</v>
+      <c r="AT6" t="n">
+        <v>175565.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>337016.1758</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>36</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>61463.04899984</v>
+        <v>119987.04899984</v>
       </c>
       <c r="U7" t="n">
-        <v>11517.30302</v>
+        <v>21202.30302</v>
       </c>
       <c r="V7" t="n">
-        <v>6525.5302368</v>
+        <v>15258.5302368</v>
       </c>
       <c r="W7" t="n">
         <v>1300</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>112967.8258</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>175565.25</v>
+      </c>
+      <c r="AU7" t="n">
         <v>21938.31289944</v>
       </c>
-      <c r="AS7" t="n">
-        <v>183564.23869944</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>359129.48869944</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>36</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>66885.97069928001</v>
+        <v>125409.97069928</v>
       </c>
       <c r="U8" t="n">
-        <v>13154.00049</v>
+        <v>22839.00049</v>
       </c>
       <c r="V8" t="n">
-        <v>7561.8967936</v>
+        <v>16294.8967936</v>
       </c>
       <c r="W8" t="n">
         <v>1300</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>112967.8258</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>736.9290446000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>175565.25</v>
+      </c>
+      <c r="AU8" t="n">
         <v>43876.62579888001</v>
       </c>
-      <c r="AS8" t="n">
-        <v>206239.48064348</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>381804.73064348</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>36</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>238783.3746</v>
+        <v>414485.618346</v>
       </c>
       <c r="U9" t="n">
-        <v>39746.376</v>
+        <v>67681.64976</v>
       </c>
       <c r="V9" t="n">
-        <v>26941.5871</v>
+        <v>51682.552971</v>
       </c>
       <c r="W9" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X9" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA9" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AB9" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>511698.644825</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>680745.4948250001</v>
+        <v>44727.33644825</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>411379.85</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1191581.68127325</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>36</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>245568.99347108</v>
+        <v>478451.0794869874</v>
       </c>
       <c r="U10" t="n">
-        <v>41659.04998720001</v>
+        <v>78821.28740209922</v>
       </c>
       <c r="V10" t="n">
-        <v>28134.69740777</v>
+        <v>59324.62521778786</v>
       </c>
       <c r="W10" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X10" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA10" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AB10" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>511698.644825</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3320.854762125</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44727.33644825</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>411379.85</v>
+      </c>
+      <c r="AU10" t="n">
         <v>23522.5988903125</v>
       </c>
-      <c r="AS10" t="n">
-        <v>707588.9484774375</v>
+      <c r="AV10" t="n">
+        <v>252275.0226380647</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1376352.557563752</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>36</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>280192.6926886</v>
+        <v>577872.7252904228</v>
       </c>
       <c r="U11" t="n">
-        <v>50558.295728</v>
+        <v>96751.59398956801</v>
       </c>
       <c r="V11" t="n">
-        <v>33575.25591056</v>
+        <v>71989.11377362808</v>
       </c>
       <c r="W11" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X11" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="AA11" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AB11" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>511698.644825</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>36741.902383375</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44727.33644825</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>411379.85</v>
+      </c>
+      <c r="AU11" t="n">
         <v>117625.757489145</v>
       </c>
-      <c r="AS11" t="n">
-        <v>835113.1546975201</v>
+      <c r="AV11" t="n">
+        <v>420924.8868710335</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1672526.628016803</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>36</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>292661.3989106</v>
+        <v>672940.7351523886</v>
       </c>
       <c r="U12" t="n">
-        <v>52639.21204800001</v>
+        <v>108257.126009968</v>
       </c>
       <c r="V12" t="n">
-        <v>34685.08526556</v>
+        <v>83962.32928429551</v>
       </c>
       <c r="W12" t="n">
-        <v>3380</v>
+        <v>3400</v>
       </c>
       <c r="X12" t="n">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="AA12" t="n">
-        <v>2370</v>
+        <v>2390</v>
       </c>
       <c r="AB12" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>511698.644825</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>70162.950004625</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44727.33644825</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>411379.85</v>
+      </c>
+      <c r="AU12" t="n">
         <v>117625.757489145</v>
       </c>
-      <c r="AS12" t="n">
-        <v>868534.2023187701</v>
+      <c r="AV12" t="n">
+        <v>631138.5092388469</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1916161.298005867</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>36</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>332200.4110659</v>
+        <v>809382.0825629499</v>
       </c>
       <c r="U13" t="n">
-        <v>63049.8122</v>
+        <v>131734.61276516</v>
       </c>
       <c r="V13" t="n">
-        <v>41105.66683996</v>
+        <v>101506.0472848203</v>
       </c>
       <c r="W13" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X13" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2190</v>
+        <v>2240</v>
       </c>
       <c r="AA13" t="n">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="AB13" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>511698.644825</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>103583.997625875</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44727.33644825</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>411379.85</v>
+      </c>
+      <c r="AU13" t="n">
         <v>232707.707124795</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1017037.19957567</v>
+      <c r="AV13" t="n">
+        <v>882520.3965063507</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2316046.182530271</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>36</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>305130.1051326</v>
+        <v>913529.3896247728</v>
       </c>
       <c r="U14" t="n">
-        <v>54720.12836800001</v>
+        <v>138075.547779072</v>
       </c>
       <c r="V14" t="n">
-        <v>35794.91462056</v>
+        <v>106372.9976233574</v>
       </c>
       <c r="W14" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X14" t="n">
-        <v>1580</v>
+        <v>1630</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2190</v>
+        <v>2240</v>
       </c>
       <c r="AA14" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="AB14" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>511698.644825</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>103583.997625875</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39443.60000000001</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44552.33644825</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>411379.85</v>
+      </c>
+      <c r="AU14" t="n">
         <v>117625.757489145</v>
       </c>
-      <c r="AS14" t="n">
-        <v>901780.2499400201</v>
+      <c r="AV14" t="n">
+        <v>1173487.069246405</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2491755.905634675</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>36</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>454230.70317196</v>
+        <v>1456404.496148966</v>
       </c>
       <c r="U15" t="n">
-        <v>80103.55036732</v>
+        <v>229120.2284426724</v>
       </c>
       <c r="V15" t="n">
-        <v>58097.7895258</v>
+        <v>179725.0277690294</v>
       </c>
       <c r="W15" t="n">
-        <v>3380</v>
+        <v>3480</v>
       </c>
       <c r="X15" t="n">
-        <v>1720</v>
+        <v>1820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2190</v>
+        <v>2290</v>
       </c>
       <c r="AA15" t="n">
-        <v>2440</v>
+        <v>2540</v>
       </c>
       <c r="AB15" t="n">
-        <v>720</v>
+        <v>1120</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>788853.6063900001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>158348.08030113</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>112125.4</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127885.9721278</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>752688.7</v>
+      </c>
+      <c r="AU15" t="n">
         <v>147763.503788688</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1354617.990479818</v>
+      <c r="AV15" t="n">
+        <v>1962496.219467707</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4085563.482075325</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>36</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>460018.62112372</v>
+        <v>1489958.876847975</v>
       </c>
       <c r="U16" t="n">
-        <v>81884.56147284</v>
+        <v>235262.4233771762</v>
       </c>
       <c r="V16" t="n">
-        <v>59235.7390937</v>
+        <v>184195.4837672883</v>
       </c>
       <c r="W16" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X16" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2190</v>
+        <v>2390</v>
       </c>
       <c r="AA16" t="n">
-        <v>2510</v>
+        <v>2710</v>
       </c>
       <c r="AB16" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>788853.6063900001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>158348.08030113</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112300.4</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128060.9721278</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>752688.7</v>
+      </c>
+      <c r="AU16" t="n">
         <v>172383.608383961</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1379413.095075091</v>
+      <c r="AV16" t="n">
+        <v>2040716.762609508</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4188579.129812399</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>36</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1126862.2992976</v>
+        <v>2738418.46851602</v>
       </c>
       <c r="U17" t="n">
-        <v>191906.55696296</v>
+        <v>424678.0865240052</v>
       </c>
       <c r="V17" t="n">
-        <v>154244.39884</v>
+        <v>352682.68592448</v>
       </c>
       <c r="W17" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X17" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2190</v>
+        <v>2390</v>
       </c>
       <c r="AA17" t="n">
-        <v>2790</v>
+        <v>2990</v>
       </c>
       <c r="AB17" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1810519.44396</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>359886.84218932</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>683503.6000000001</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>755891.3777584</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1202622.35</v>
+      </c>
+      <c r="AU17" t="n">
         <v>228493.699522704</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3352408.335672024</v>
+      <c r="AV17" t="n">
+        <v>3086089.746166992</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7713508.209597415</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>36</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5582612.108762201</v>
+        <v>9685598.609047668</v>
       </c>
       <c r="U18" t="n">
-        <v>930341.6842028</v>
+        <v>1471827.949363626</v>
       </c>
       <c r="V18" t="n">
-        <v>757979.48865316</v>
+        <v>1217702.699090537</v>
       </c>
       <c r="W18" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X18" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2190</v>
+        <v>2390</v>
       </c>
       <c r="AA18" t="n">
-        <v>3350</v>
+        <v>3550</v>
       </c>
       <c r="AB18" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11023673.609335</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2197126.575554045</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2887452.2887468</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1763651.6</v>
+      </c>
+      <c r="AU18" t="n">
         <v>554501.8046281449</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16376237.28951719</v>
+      <c r="AV18" t="n">
+        <v>7839570.701163284</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26861287.47942728</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>36</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9179568.427389801</v>
+        <v>16680935.52985896</v>
       </c>
       <c r="U19" t="n">
-        <v>1513529.7444212</v>
+        <v>2623668.298546061</v>
       </c>
       <c r="V19" t="n">
-        <v>1227322.461586</v>
+        <v>2164025.556714944</v>
       </c>
       <c r="W19" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X19" t="n">
-        <v>3540</v>
+        <v>3740</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2190</v>
+        <v>2390</v>
       </c>
       <c r="AA19" t="n">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="AB19" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>17886185.34914</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3566344.168875581</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3469133.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6151937.252371</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1763651.6</v>
+      </c>
+      <c r="AU19" t="n">
         <v>600645.2</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26698188.31801558</v>
+      <c r="AV19" t="n">
+        <v>16103310.27055113</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47247954.24093772</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>36</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>219056.08830098</v>
+        <v>225646.08830098</v>
       </c>
       <c r="U20" t="n">
-        <v>40106.8685893</v>
+        <v>41196.8685893</v>
       </c>
       <c r="V20" t="n">
-        <v>24597.06959328</v>
+        <v>25601.06959328</v>
       </c>
       <c r="W20" t="n">
         <v>1300</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>540476.72508</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3530.56564596</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33824.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>19884</v>
+      </c>
+      <c r="AU20" t="n">
         <v>17125.64100255</v>
       </c>
-      <c r="AS20" t="n">
-        <v>642336.63172851</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>662220.63172851</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>36</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>289775.5221860801</v>
+        <v>303389.32181808</v>
       </c>
       <c r="U21" t="n">
-        <v>50995.12717496</v>
+        <v>53269.06371096</v>
       </c>
       <c r="V21" t="n">
-        <v>33768.68730970001</v>
+        <v>35785.8595877</v>
       </c>
       <c r="W21" t="n">
         <v>1700</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>641140.23289</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>46023.19361582999</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>67649.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>74052.75232890001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>34499.55</v>
+      </c>
+      <c r="AU21" t="n">
         <v>20500.225218249</v>
       </c>
-      <c r="AS21" t="n">
-        <v>843364.351724079</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>884267.0540529791</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>36</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>407511.1249444801</v>
+        <v>535407.3713496279</v>
       </c>
       <c r="U22" t="n">
-        <v>69617.87558812</v>
+        <v>88165.34427523373</v>
       </c>
       <c r="V22" t="n">
-        <v>50373.31474881</v>
+        <v>65617.70130781805</v>
       </c>
       <c r="W22" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X22" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="AA22" t="n">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="AB22" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>812049.479915</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>110410.574653955</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>97518.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105630.64479915</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>46596.5</v>
+      </c>
+      <c r="AU22" t="n">
         <v>33075.67173921051</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1190744.026308166</v>
+      <c r="AV22" t="n">
+        <v>289420.2582613787</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1534873.029368694</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>36</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>474653.32377719</v>
+        <v>693882.6184990876</v>
       </c>
       <c r="U23" t="n">
-        <v>82828.45190223999</v>
+        <v>118334.6258838461</v>
       </c>
       <c r="V23" t="n">
-        <v>59802.4642607</v>
+        <v>86482.7048620701</v>
       </c>
       <c r="W23" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X23" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2190</v>
+        <v>2390</v>
       </c>
       <c r="AA23" t="n">
-        <v>2510</v>
+        <v>2710</v>
       </c>
       <c r="AB23" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>886525.646645</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>177639.714792215</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>152526</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>170240.0129329</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>85267.39999999999</v>
+      </c>
+      <c r="AU23" t="n">
         <v>42457.099964456</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1403819.311401671</v>
+      <c r="AV23" t="n">
+        <v>517051.8657199576</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2023852.590054529</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>36</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>549737.4893360001</v>
+        <v>874427.3723748961</v>
       </c>
       <c r="U24" t="n">
-        <v>100202.89095592</v>
+        <v>153429.6962578595</v>
       </c>
       <c r="V24" t="n">
-        <v>72229.66615623</v>
+        <v>112838.1923092961</v>
       </c>
       <c r="W24" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X24" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2190</v>
+        <v>2390</v>
       </c>
       <c r="AA24" t="n">
-        <v>2790</v>
+        <v>2990</v>
       </c>
       <c r="AB24" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1004280.105195</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>200808.054131865</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>257621.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>297759.4042078</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>136237.65</v>
+      </c>
+      <c r="AU24" t="n">
         <v>50753.90800330551</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1670943.517330171</v>
+      <c r="AV24" t="n">
+        <v>751478.0107946083</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2598797.382332579</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>36</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>704043.9560419</v>
+        <v>1499034.920996491</v>
       </c>
       <c r="U25" t="n">
-        <v>135294.5584636</v>
+        <v>261451.9636624236</v>
       </c>
       <c r="V25" t="n">
-        <v>97636.49342948</v>
+        <v>195376.8638054516</v>
       </c>
       <c r="W25" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X25" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2190</v>
+        <v>2390</v>
       </c>
       <c r="AA25" t="n">
-        <v>3350</v>
+        <v>3550</v>
       </c>
       <c r="AB25" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1249589.784095</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>249147.442396165</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>567704.7827276001</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>199797.05</v>
+      </c>
+      <c r="AU25" t="n">
         <v>65263.27016908501</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2214871.74666025</v>
+      <c r="AV25" t="n">
+        <v>1930185.957760711</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4444755.937148562</v>
       </c>
     </row>
   </sheetData>
